--- a/medicine/Médecine vétérinaire/Bétail/Bétail.xlsx
+++ b/medicine/Médecine vétérinaire/Bétail/Bétail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9tail</t>
+          <t>Bétail</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bétail (terme collectif, sans pluriel) est l'ensemble des animaux d'élevage, excepté celles de basse-cour et d'aquaculture. Le bétail au sein d'une ferme formant troupeau, troupe ou bande constitue le fond du cheptel de celle-ci. On distingue le « gros bétail » (bovin, cheval, mulet, âne) et le « petit bétail » (mouton, chèvre, porc).
 Les sociétés humaines primitives étaient fondées sur un mode de subsistance appelé mode chasseur-cueilleur. Plus tard sont apparues les sociétés dont la subsistance dépend de l'élevage et de la domestication et qui impose un nomadisme dans un but de gestion de la ressource végétale naturelle (rotation). C'est la domestication qui a permis et permet toujours aux sociétés traditionnelles et modernes de sélectionner les animaux les plus favorables à l'élevage.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9tail</t>
+          <t>Bétail</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,86 @@
           <t>Rôle du bétail dans les sociétés traditionnelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les modes de subsistance traditionnels est l'agriculture. Quand l'élevage est nomade, les éleveurs ne font pas toujours bon ménage avec les cultivateurs sédentaires, les seconds reprochant aux premiers la dévastation des champs par incident de gardiennage. Certaines sociétés sont à la fois pastorales et sédentaires.
-Techniques d'élevages
-pastoralisme
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les modes de subsistance traditionnels est l'agriculture. Quand l'élevage est nomade, les éleveurs ne font pas toujours bon ménage avec les cultivateurs sédentaires, les seconds reprochant aux premiers la dévastation des champs par incident de gardiennage. Certaines sociétés sont à la fois pastorales et sédentaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bétail</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9tail</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Rôle du bétail dans les sociétés traditionnelles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Techniques d'élevages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>pastoralisme
 nomadisme
-élevage extensif
-Utilisation
-réserve alimentaire (fromages, beurre, crème, viandes séchées, salées, boucanées, etc.)
+élevage extensif</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bétail</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9tail</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rôle du bétail dans les sociétés traditionnelles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>réserve alimentaire (fromages, beurre, crème, viandes séchées, salées, boucanées, etc.)
 production alimentaire journalière (viande fraîche, lait, etc.)
 production de matériaux de base (fibre, cuir, fourrure, carburant pour le feu sous forme de bouse séchée)
 production d'amendements et fertilisants
@@ -529,38 +612,77 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B%C3%A9tail</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bétail</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine vétérinaire/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/B%C3%A9tail</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Rôle du bétail dans les sociétés dites modernes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Techniques d'élevages
-élevage intensif voir industriel
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Techniques d'élevages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>élevage intensif voir industriel
 élevage extensif
-pastoralisme (en régression constante)[réf. nécessaire]
-Utilisation
-réserve alimentaire (fromages, beurre, crème fraîche, viandes séchées, salées, boucanées...)
+pastoralisme (en régression constante)[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bétail</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%A9tail</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Rôle du bétail dans les sociétés dites modernes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>réserve alimentaire (fromages, beurre, crème fraîche, viandes séchées, salées, boucanées...)
 production alimentaire journalière (viande fraîche,lait…)
 production de matériaux de base (fibre, cuir, fourrure)
 production d'amendements et fertilisants
@@ -570,67 +692,71 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B%C3%A9tail</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bétail</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine vétérinaire/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/B%C3%A9tail</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Zoonoses
 maladie du bétail</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B%C3%A9tail</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bétail</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine vétérinaire/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/B%C3%A9tail</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Impacts environnementaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Bétail de l'élevage paysan
 Bétail de l'élevage industriel
 Déclaration de l'essayiste américain Jeremy Rifkin à propos de l'élevage industriel :
-« L'élite intellectuelle dans les pays développés trouve parfaitement normal de s'inquiéter de la surpopulation dans le monde, mais elle oublie toujours un fait. La vraie surpopulation, c'est celle du bétail[1]. »
+« L'élite intellectuelle dans les pays développés trouve parfaitement normal de s'inquiéter de la surpopulation dans le monde, mais elle oublie toujours un fait. La vraie surpopulation, c'est celle du bétail. »
 </t>
         </is>
       </c>
